--- a/完成体を入れろ/内部設計書.xlsx
+++ b/完成体を入れろ/内部設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\完成体を入れろ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeuchi\Desktop\外部、内部\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -401,19 +401,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画像入力処理</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -773,12 +760,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>田隈様</t>
+    <t>画像保存処理</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田隈広紀</t>
     <rPh sb="0" eb="2">
       <t>タクマ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>サマ</t>
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1465,31 +1468,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,16 +1504,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1546,7 +1558,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1564,22 +1576,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1788,8 +1791,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9445440" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="10255065" y="4029636"/>
+          <a:ext cx="750794" cy="447115"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3039,8 +3042,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="265894" y="2968752"/>
-          <a:ext cx="1249276" cy="527865"/>
+          <a:off x="286551" y="3217689"/>
+          <a:ext cx="1352710" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3674,8 +3677,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9445440" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="10277397" y="3957278"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -4426,8 +4429,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3296483" y="3004123"/>
-          <a:ext cx="1241907" cy="526341"/>
+          <a:off x="3577879" y="3256108"/>
+          <a:ext cx="1352710" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -5388,8 +5391,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="265894" y="2968752"/>
-          <a:ext cx="1249276" cy="527865"/>
+          <a:off x="286551" y="3217689"/>
+          <a:ext cx="1352710" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -6533,8 +6536,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3325452" y="3308997"/>
-          <a:ext cx="1241907" cy="527866"/>
+          <a:off x="3609896" y="3585882"/>
+          <a:ext cx="1352710" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -6981,8 +6984,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411670" y="3690334"/>
-          <a:ext cx="690215" cy="404824"/>
+          <a:off x="10240579" y="4000500"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -7532,10 +7535,10 @@
       <c r="O1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="68">
+      <c r="P1" s="62">
         <v>42934</v>
       </c>
-      <c r="Q1" s="69"/>
+      <c r="Q1" s="63"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
@@ -7552,11 +7555,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="65"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
@@ -7601,17 +7604,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -7622,15 +7625,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -7641,15 +7644,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -7697,19 +7700,19 @@
       <c r="A10" s="40"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="41"/>
@@ -7718,17 +7721,17 @@
       <c r="A11" s="40"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="41"/>
@@ -7737,17 +7740,17 @@
       <c r="A12" s="40"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="41"/>
@@ -7757,17 +7760,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -7778,15 +7781,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -7797,15 +7800,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -7816,15 +7819,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -7835,15 +7838,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -7874,15 +7877,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
       <c r="M19" s="37"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -7895,13 +7898,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
       <c r="M20" s="37"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -7914,13 +7917,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
       <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -7933,13 +7936,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
       <c r="M22" s="37"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -7952,13 +7955,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
       <c r="M23" s="37"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -7971,13 +7974,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
       <c r="M24" s="37"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -7990,13 +7993,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
       <c r="M25" s="37"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -8051,15 +8054,15 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="64" t="s">
+      <c r="J28" s="58"/>
+      <c r="K28" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="66"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="82"/>
       <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -8071,17 +8074,17 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="78" t="s">
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="75"/>
+      <c r="M29" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78" t="s">
+      <c r="N29" s="76"/>
+      <c r="O29" s="76" t="s">
         <v>19</v>
       </c>
       <c r="P29" s="79"/>
@@ -8096,14 +8099,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="76"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="71"/>
       <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8115,14 +8118,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="76"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="71"/>
       <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8134,14 +8137,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="76"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="71"/>
       <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8153,14 +8156,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="76"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="71"/>
       <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8172,14 +8175,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="76"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="71"/>
       <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8191,14 +8194,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="77"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="73"/>
       <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -8276,32 +8279,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="55"/>
       <c r="M1" s="53"/>
       <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -8329,7 +8332,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>9</v>
@@ -8370,51 +8373,51 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="61">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="70">
         <v>1</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
       <c r="H6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
       <c r="H7" s="54" t="s">
         <v>6</v>
       </c>
       <c r="L7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -9067,32 +9070,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="55"/>
       <c r="M1" s="53"/>
       <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -9120,7 +9123,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>25</v>
@@ -9181,10 +9184,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>55</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -9204,12 +9207,12 @@
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="92"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="55" t="s">
         <v>15</v>
       </c>
@@ -9217,13 +9220,13 @@
         <v>23</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -9237,22 +9240,22 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="26" t="s">
+      <c r="H9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="26" t="s">
-        <v>60</v>
-      </c>
       <c r="I9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
+        <v>49</v>
+      </c>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -9266,20 +9269,20 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="87"/>
+      <c r="E10" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="90"/>
       <c r="G10" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -9293,20 +9296,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="90"/>
+      <c r="G11" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="26" t="s">
+      <c r="H11" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>67</v>
-      </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="87"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -9320,20 +9323,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="90"/>
+      <c r="G12" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="H12" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -9347,20 +9350,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="87"/>
+      <c r="E13" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="90"/>
       <c r="G13" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="87"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -9374,20 +9377,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="87"/>
+      <c r="E14" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="90"/>
       <c r="G14" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="26" t="s">
-        <v>60</v>
-      </c>
       <c r="I14" s="26"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -9401,20 +9404,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="90"/>
+      <c r="G15" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="26" t="s">
-        <v>73</v>
-      </c>
       <c r="H15" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -9428,20 +9431,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="91" t="s">
+      <c r="E16" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="90"/>
+      <c r="G16" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="26" t="s">
-        <v>75</v>
-      </c>
       <c r="H16" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="26"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -9455,20 +9458,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="91" t="s">
+      <c r="E17" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="90"/>
+      <c r="G17" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>77</v>
-      </c>
       <c r="I17" s="26"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="87"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -9482,20 +9485,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="87"/>
+      <c r="E18" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="90"/>
       <c r="G18" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="26"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="87"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="90"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -9509,20 +9512,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="91" t="s">
+      <c r="E19" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="90"/>
+      <c r="G19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>80</v>
-      </c>
       <c r="I19" s="26"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="90"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -9536,14 +9539,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -9557,14 +9560,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="87"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -9578,14 +9581,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="87"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -9599,14 +9602,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="90"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -9620,14 +9623,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="87"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="90"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -9641,14 +9644,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="87"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="90"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -9662,14 +9665,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="87"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -9929,6 +9932,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="E26:F26"/>
@@ -9939,37 +9973,6 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9988,7 +9991,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10009,32 +10012,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="55"/>
       <c r="M1" s="53"/>
       <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -10062,7 +10065,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>9</v>
@@ -10103,58 +10106,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="61">
-        <v>3</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="70">
+        <v>1</v>
+      </c>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
       <c r="H6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
+      <c r="I6" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
+      <c r="I7" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -10757,17 +10760,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10808,32 +10811,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="55"/>
       <c r="M1" s="53"/>
       <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -10861,7 +10864,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>25</v>
@@ -10922,10 +10925,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -10945,12 +10948,12 @@
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="92"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="55" t="s">
         <v>15</v>
       </c>
@@ -10958,13 +10961,13 @@
         <v>23</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -10978,22 +10981,22 @@
         <f t="shared" ref="D9:D26" si="0">ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="87"/>
+      <c r="E9" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="90"/>
       <c r="G9" s="56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
+        <v>49</v>
+      </c>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -11007,20 +11010,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E10" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="87"/>
+      <c r="E10" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="90"/>
       <c r="G10" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -11034,20 +11037,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="87"/>
+      <c r="E11" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="90"/>
       <c r="G11" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="87"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -11061,14 +11064,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="91"/>
-      <c r="F12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -11082,14 +11085,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="87"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -11103,14 +11106,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -11124,14 +11127,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -11145,14 +11148,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -11166,14 +11169,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="87"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -11187,14 +11190,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="87"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="90"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -11208,14 +11211,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="90"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -11229,14 +11232,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -11250,14 +11253,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="87"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -11271,14 +11274,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="87"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -11292,14 +11295,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="90"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -11313,14 +11316,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="87"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="90"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -11334,14 +11337,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="87"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="90"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -11355,14 +11358,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="87"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -11622,6 +11625,35 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="E22:F22"/>
@@ -11634,35 +11666,6 @@
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11702,32 +11705,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="55"/>
       <c r="M1" s="53"/>
       <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -11755,7 +11758,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>25</v>
@@ -11816,10 +11819,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -11839,12 +11842,12 @@
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="92"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="55" t="s">
         <v>15</v>
       </c>
@@ -11852,13 +11855,13 @@
         <v>23</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -11872,22 +11875,22 @@
         <f t="shared" ref="D9:D26" si="0">ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="87"/>
+      <c r="E9" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="90"/>
       <c r="G9" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
+        <v>49</v>
+      </c>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -11901,20 +11904,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E10" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="87"/>
+      <c r="E10" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="90"/>
       <c r="G10" s="56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="56"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -11928,20 +11931,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="87"/>
+      <c r="E11" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="90"/>
       <c r="G11" s="56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="56"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="87"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -11955,14 +11958,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="91"/>
-      <c r="F12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -11976,14 +11979,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="87"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -11997,14 +12000,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -12018,14 +12021,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -12039,14 +12042,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -12060,14 +12063,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="87"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -12081,14 +12084,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="87"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="90"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -12102,14 +12105,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="90"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -12123,14 +12126,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -12144,14 +12147,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="87"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -12165,14 +12168,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="87"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -12186,14 +12189,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="90"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -12207,14 +12210,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="87"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="90"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -12228,14 +12231,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="87"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="90"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -12249,14 +12252,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="87"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -12516,6 +12519,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="E26:F26"/>
@@ -12526,37 +12560,6 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12575,7 +12578,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="I7" sqref="I7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12596,25 +12599,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="4" t="s">
@@ -12690,58 +12693,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="61">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="70">
         <v>1</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
       <c r="H6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="61" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
+      <c r="I7" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -13346,17 +13349,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13397,25 +13400,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="93" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
       <c r="L1" s="20"/>
       <c r="M1" s="5"/>
       <c r="N1" s="20" t="s">
@@ -13514,7 +13517,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -13536,10 +13539,10 @@
       <c r="D8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="92"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="30" t="s">
         <v>15</v>
       </c>
@@ -13549,11 +13552,11 @@
       <c r="I8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="92" t="s">
+      <c r="J8" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -13567,22 +13570,22 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="87"/>
+      <c r="E9" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="90"/>
       <c r="G9" s="57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
+        <v>49</v>
+      </c>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -13596,20 +13599,20 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="87"/>
+      <c r="E10" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="90"/>
       <c r="G10" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="87"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -13623,20 +13626,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="87"/>
+      <c r="E11" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="90"/>
       <c r="G11" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="87"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -13650,20 +13653,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="87"/>
+      <c r="E12" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="90"/>
       <c r="G12" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -13677,20 +13680,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="87"/>
+      <c r="E13" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="90"/>
       <c r="G13" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="87"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -13704,14 +13707,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="87"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -13725,14 +13728,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -13746,14 +13749,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -13767,14 +13770,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="87"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -13788,14 +13791,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="87"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="90"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -13809,14 +13812,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="90"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -13830,14 +13833,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -13851,14 +13854,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="87"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -13872,14 +13875,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="87"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -13893,14 +13896,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="90"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="90"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -13914,14 +13917,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="87"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="90"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -13935,14 +13938,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="87"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="90"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -13956,14 +13959,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="87"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -14223,12 +14226,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -14245,25 +14261,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/完成体を入れろ/内部設計書.xlsx
+++ b/完成体を入れろ/内部設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeuchi\Desktop\外部、内部\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\完成体を入れろ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -790,7 +790,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,6 +864,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="MS UI Gothic"/>
       <family val="3"/>
@@ -1293,7 +1300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1583,6 +1590,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3042,8 +3058,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="286551" y="3217689"/>
-          <a:ext cx="1352710" cy="571501"/>
+          <a:off x="265894" y="2968752"/>
+          <a:ext cx="1249276" cy="527865"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3677,8 +3693,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10277397" y="3957278"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="9445440" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -4429,8 +4445,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3577879" y="3256108"/>
-          <a:ext cx="1352710" cy="571501"/>
+          <a:off x="3296483" y="3004123"/>
+          <a:ext cx="1241907" cy="526341"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -5391,8 +5407,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="286551" y="3217689"/>
-          <a:ext cx="1352710" cy="571501"/>
+          <a:off x="265894" y="2968752"/>
+          <a:ext cx="1249276" cy="527865"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -6536,8 +6552,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3609896" y="3585882"/>
-          <a:ext cx="1352710" cy="571501"/>
+          <a:off x="3325452" y="3308997"/>
+          <a:ext cx="1241907" cy="527866"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -6984,8 +7000,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10240579" y="4000500"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="9411670" y="3690334"/>
+          <a:ext cx="690215" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -7504,7 +7520,7 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8257,8 +8273,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8284,11 +8300,11 @@
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
@@ -9932,37 +9948,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="E26:F26"/>
@@ -9973,6 +9958,37 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10760,17 +10776,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11625,35 +11641,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="E22:F22"/>
@@ -11666,6 +11653,35 @@
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11684,7 +11700,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L51" sqref="L51:L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12519,37 +12535,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="E26:F26"/>
@@ -12560,6 +12545,37 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13349,17 +13365,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14226,25 +14242,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -14261,12 +14264,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/完成体を入れろ/内部設計書.xlsx
+++ b/完成体を入れろ/内部設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -20,11 +20,13 @@
     <sheet name="データ (4)" sheetId="21" r:id="rId6"/>
     <sheet name="処理" sheetId="8" r:id="rId7"/>
     <sheet name="データ" sheetId="12" r:id="rId8"/>
+    <sheet name="処理 (4)" sheetId="23" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">処理!$A$1:$P$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'処理 (2)'!$A$1:$P$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'処理 (3)'!$A$1:$P$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'処理 (4)'!$A$1:$P$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_内部!$A$1:$Q$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="115">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -785,6 +787,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Twitterのツイート表示</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1300,7 +1309,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1478,6 +1487,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,13 +1583,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1583,6 +1601,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1590,15 +1617,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1807,8 +1825,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10255065" y="4029636"/>
-          <a:ext cx="750794" cy="447115"/>
+          <a:off x="9445440" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3058,8 +3076,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="265894" y="2968752"/>
-          <a:ext cx="1249276" cy="527865"/>
+          <a:off x="286551" y="3217689"/>
+          <a:ext cx="1352710" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3693,8 +3711,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9445440" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="10277397" y="3957278"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -4445,8 +4463,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3296483" y="3004123"/>
-          <a:ext cx="1241907" cy="526341"/>
+          <a:off x="3577879" y="3256108"/>
+          <a:ext cx="1352710" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -5407,8 +5425,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="265894" y="2968752"/>
-          <a:ext cx="1249276" cy="527865"/>
+          <a:off x="286551" y="3217689"/>
+          <a:ext cx="1352710" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -6552,8 +6570,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3325452" y="3308997"/>
-          <a:ext cx="1241907" cy="527866"/>
+          <a:off x="3609896" y="3585882"/>
+          <a:ext cx="1352710" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -7000,8 +7018,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9411670" y="3690334"/>
-          <a:ext cx="690215" cy="404824"/>
+          <a:off x="10240579" y="4000500"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -7206,6 +7224,655 @@
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>918883</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート : 手操作入力 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10243856" y="3206003"/>
+          <a:ext cx="762002" cy="275665"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ボタン押下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>156884</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>918884</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート : 定義済み処理 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10243859" y="3619501"/>
+          <a:ext cx="762000" cy="283508"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168090</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>918884</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10255065" y="4029636"/>
+          <a:ext cx="750794" cy="447115"/>
+          <a:chOff x="336178" y="3787589"/>
+          <a:chExt cx="1367117" cy="571501"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="ひし形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="336178" y="3787589"/>
+            <a:ext cx="1367117" cy="571501"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="テキスト ボックス 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="398523" y="3888442"/>
+            <a:ext cx="1229363" cy="392415"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>判断</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>941295</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート : 磁気ディスク 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10266270" y="4588809"/>
+          <a:ext cx="762000" cy="365312"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>39221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>896471</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>39221</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="カギ線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10299887" y="5373221"/>
+          <a:ext cx="683559" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>112859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>804863</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72839</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート : 定義済み処理 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="947738" y="2360759"/>
+          <a:ext cx="1476375" cy="474330"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ツイート情報を取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>118901</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>738350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート : 定義済み処理 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="957101" y="3353119"/>
+          <a:ext cx="1400499" cy="599756"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ツイートを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>81243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="2843493"/>
+          <a:ext cx="1" cy="460241"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -7551,10 +8218,10 @@
       <c r="O1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="62">
+      <c r="P1" s="65">
         <v>42934</v>
       </c>
-      <c r="Q1" s="63"/>
+      <c r="Q1" s="66"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
@@ -7571,11 +8238,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="64" t="s">
+      <c r="O2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="65"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="68"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
@@ -7620,17 +8287,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -7641,15 +8308,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -7660,15 +8327,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -7716,19 +8383,19 @@
       <c r="A10" s="40"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="41"/>
@@ -7737,17 +8404,17 @@
       <c r="A11" s="40"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="41"/>
@@ -7756,17 +8423,17 @@
       <c r="A12" s="40"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="41"/>
@@ -7776,17 +8443,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -7797,15 +8464,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -7816,15 +8483,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -7835,15 +8502,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -7854,15 +8521,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -7893,15 +8560,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
       <c r="M19" s="37"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -7914,13 +8581,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="37"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -7933,13 +8600,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
       <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -7952,13 +8619,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
       <c r="M22" s="37"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -7971,13 +8638,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
       <c r="M23" s="37"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -7990,13 +8657,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
       <c r="M24" s="37"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -8009,13 +8676,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
       <c r="M25" s="37"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -8071,14 +8738,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="58"/>
-      <c r="K28" s="80" t="s">
+      <c r="K28" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="82"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="85"/>
       <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -8090,20 +8757,20 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="74" t="s">
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="L29" s="75"/>
-      <c r="M29" s="76" t="s">
+      <c r="L29" s="78"/>
+      <c r="M29" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76" t="s">
+      <c r="N29" s="79"/>
+      <c r="O29" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="79"/>
+      <c r="P29" s="82"/>
       <c r="Q29" s="41"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8115,14 +8782,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="71"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="74"/>
       <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8134,14 +8801,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="71"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="74"/>
       <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8153,14 +8820,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="71"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="74"/>
       <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8172,14 +8839,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="71"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="74"/>
       <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8191,14 +8858,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="71"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="74"/>
       <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8210,14 +8877,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="73"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="76"/>
       <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -8273,7 +8940,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
@@ -8295,25 +8962,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="97" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="55"/>
       <c r="M1" s="53"/>
       <c r="N1" s="55" t="s">
@@ -8389,51 +9056,51 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="70">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="73">
         <v>1</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="83" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
       <c r="H7" s="54" t="s">
         <v>6</v>
       </c>
       <c r="L7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -9086,25 +9753,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="55"/>
       <c r="M1" s="53"/>
       <c r="N1" s="55" t="s">
@@ -9225,10 +9892,10 @@
       <c r="D8" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="95"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="55" t="s">
         <v>15</v>
       </c>
@@ -9238,11 +9905,11 @@
       <c r="I8" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="95" t="s">
+      <c r="J8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -9256,10 +9923,10 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="26" t="s">
         <v>58</v>
       </c>
@@ -9269,9 +9936,9 @@
       <c r="I9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -9285,10 +9952,10 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="90"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="26" t="s">
         <v>62</v>
       </c>
@@ -9296,9 +9963,9 @@
         <v>59</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -9312,10 +9979,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="90"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="26" t="s">
         <v>65</v>
       </c>
@@ -9323,9 +9990,9 @@
         <v>66</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="90"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -9339,10 +10006,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="90"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="26" t="s">
         <v>68</v>
       </c>
@@ -9350,9 +10017,9 @@
         <v>45</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -9366,10 +10033,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="90"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="26" t="s">
         <v>68</v>
       </c>
@@ -9377,9 +10044,9 @@
         <v>45</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="98"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -9393,10 +10060,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="90"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="26" t="s">
         <v>58</v>
       </c>
@@ -9404,9 +10071,9 @@
         <v>59</v>
       </c>
       <c r="I14" s="26"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -9420,10 +10087,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="90"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="26" t="s">
         <v>72</v>
       </c>
@@ -9431,9 +10098,9 @@
         <v>59</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="90"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="98"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -9447,10 +10114,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="E16" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="90"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="26" t="s">
         <v>74</v>
       </c>
@@ -9458,9 +10125,9 @@
         <v>59</v>
       </c>
       <c r="I16" s="26"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="98"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -9474,10 +10141,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="E17" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="90"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="26" t="s">
         <v>65</v>
       </c>
@@ -9485,9 +10152,9 @@
         <v>76</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="98"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -9501,10 +10168,10 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="90"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="26" t="s">
         <v>68</v>
       </c>
@@ -9512,9 +10179,9 @@
         <v>59</v>
       </c>
       <c r="I18" s="26"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="90"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="98"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -9528,10 +10195,10 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="90"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="26" t="s">
         <v>65</v>
       </c>
@@ -9539,9 +10206,9 @@
         <v>79</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="90"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="98"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -9555,14 +10222,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="90"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="98"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -9576,14 +10243,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="90"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="90"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -9597,14 +10264,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="90"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="90"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="98"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -9618,14 +10285,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="90"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="90"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="98"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -9639,14 +10306,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="90"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="98"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="90"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="98"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -9660,14 +10327,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="90"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="98"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="90"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="98"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -9681,14 +10348,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="90"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="90"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="98"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -9948,6 +10615,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="E26:F26"/>
@@ -9958,37 +10656,6 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10028,25 +10695,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="55"/>
       <c r="M1" s="53"/>
       <c r="N1" s="55" t="s">
@@ -10122,58 +10789,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="70">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="73">
         <v>1</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="70" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
       <c r="H7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -10776,17 +11443,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10827,25 +11494,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="55"/>
       <c r="M1" s="53"/>
       <c r="N1" s="55" t="s">
@@ -10966,10 +11633,10 @@
       <c r="D8" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="95"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="55" t="s">
         <v>15</v>
       </c>
@@ -10979,11 +11646,11 @@
       <c r="I8" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="95" t="s">
+      <c r="J8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -10997,10 +11664,10 @@
         <f t="shared" ref="D9:D26" si="0">ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="56" t="s">
         <v>93</v>
       </c>
@@ -11010,9 +11677,9 @@
       <c r="I9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -11026,10 +11693,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="90"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="56" t="s">
         <v>90</v>
       </c>
@@ -11037,9 +11704,9 @@
         <v>89</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -11053,10 +11720,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="90"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="56" t="s">
         <v>87</v>
       </c>
@@ -11064,9 +11731,9 @@
         <v>86</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="90"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -11080,14 +11747,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="90"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -11101,14 +11768,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="90"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="98"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -11122,14 +11789,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="90"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -11143,14 +11810,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="90"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="90"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="98"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -11164,14 +11831,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="90"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="98"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -11185,14 +11852,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="90"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="98"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -11206,14 +11873,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="90"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="90"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="98"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -11227,14 +11894,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="90"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="90"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="98"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -11248,14 +11915,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="90"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="98"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -11269,14 +11936,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="90"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="90"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -11290,14 +11957,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="90"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="90"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="98"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -11311,14 +11978,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="90"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="90"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="98"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -11332,14 +11999,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="90"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="98"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="90"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="98"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -11353,14 +12020,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="90"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="98"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="90"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="98"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -11374,14 +12041,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="90"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="90"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="98"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -11641,6 +12308,35 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="E22:F22"/>
@@ -11653,35 +12349,6 @@
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11721,25 +12388,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="55"/>
       <c r="M1" s="53"/>
       <c r="N1" s="55" t="s">
@@ -11860,10 +12527,10 @@
       <c r="D8" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="95"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="55" t="s">
         <v>15</v>
       </c>
@@ -11873,11 +12540,11 @@
       <c r="I8" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="95" t="s">
+      <c r="J8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -11891,10 +12558,10 @@
         <f t="shared" ref="D9:D26" si="0">ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="56" t="s">
         <v>58</v>
       </c>
@@ -11904,9 +12571,9 @@
       <c r="I9" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -11920,10 +12587,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="90"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="56" t="s">
         <v>61</v>
       </c>
@@ -11931,9 +12598,9 @@
         <v>45</v>
       </c>
       <c r="I10" s="56"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -11947,10 +12614,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="90"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="56" t="s">
         <v>61</v>
       </c>
@@ -11958,9 +12625,9 @@
         <v>45</v>
       </c>
       <c r="I11" s="56"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="90"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -11974,14 +12641,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="90"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -11995,14 +12662,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="90"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="98"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -12016,14 +12683,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="90"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -12037,14 +12704,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="90"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="90"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="98"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -12058,14 +12725,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="90"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="98"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -12079,14 +12746,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="90"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="98"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -12100,14 +12767,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="90"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="90"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="98"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -12121,14 +12788,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="90"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="90"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="98"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -12142,14 +12809,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="90"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="98"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -12163,14 +12830,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="90"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="90"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -12184,14 +12851,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="90"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="90"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="98"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -12205,14 +12872,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="90"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="90"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="98"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -12226,14 +12893,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="90"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="98"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="90"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="98"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -12247,14 +12914,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="90"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="98"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="90"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="98"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -12268,14 +12935,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="90"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="90"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="98"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -12535,6 +13202,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="E26:F26"/>
@@ -12545,37 +13243,6 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12615,25 +13282,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="4"/>
       <c r="M1" s="5"/>
       <c r="N1" s="4" t="s">
@@ -12709,58 +13376,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="70">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="73">
         <v>1</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
       <c r="L6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="70" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
       <c r="H7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
       <c r="L7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -13365,17 +14032,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13416,25 +14083,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="98"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="20"/>
       <c r="M1" s="5"/>
       <c r="N1" s="20" t="s">
@@ -13555,10 +14222,10 @@
       <c r="D8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="95"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="30" t="s">
         <v>15</v>
       </c>
@@ -13568,11 +14235,11 @@
       <c r="I8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="95" t="s">
+      <c r="J8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -13586,10 +14253,10 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="57" t="s">
         <v>40</v>
       </c>
@@ -13599,9 +14266,9 @@
       <c r="I9" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -13615,10 +14282,10 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="90"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="26" t="s">
         <v>44</v>
       </c>
@@ -13626,9 +14293,9 @@
         <v>46</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -13642,10 +14309,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="90"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="26" t="s">
         <v>41</v>
       </c>
@@ -13653,9 +14320,9 @@
         <v>47</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="90"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -13669,10 +14336,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="90"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="26" t="s">
         <v>42</v>
       </c>
@@ -13680,9 +14347,9 @@
         <v>48</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -13696,10 +14363,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="90"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="26" t="s">
         <v>43</v>
       </c>
@@ -13707,9 +14374,9 @@
         <v>48</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="98"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -13723,14 +14390,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="90"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -13744,14 +14411,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="90"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="90"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="98"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -13765,14 +14432,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="90"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="98"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -13786,14 +14453,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="90"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="98"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -13807,14 +14474,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="90"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="90"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="98"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -13828,14 +14495,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="90"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="90"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="98"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -13849,14 +14516,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="90"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="98"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -13870,14 +14537,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="90"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="90"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -13891,14 +14558,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="90"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="90"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="98"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -13912,14 +14579,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="90"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="90"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="98"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -13933,14 +14600,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="90"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="98"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="90"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="98"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -13954,14 +14621,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="90"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="98"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="90"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="98"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -13975,14 +14642,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="90"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="90"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="98"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -14242,12 +14909,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -14264,25 +14944,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14291,4 +14958,795 @@
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="10.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42935</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="73">
+        <v>1</v>
+      </c>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/完成体を入れろ/内部設計書.xlsx
+++ b/完成体を入れろ/内部設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="117">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -348,32 +348,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PM学科専用闇キャンパスポータルサイト</t>
-    <rPh sb="2" eb="4">
-      <t>ガッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヤミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ＰＭ学科専用闇キャンパスポータルサイト</t>
-    <rPh sb="2" eb="4">
-      <t>ガッカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヤミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -727,33 +701,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PM学科闇キャンパスポータルサイト</t>
-    <rPh sb="2" eb="4">
-      <t>ガッカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヤミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PM学科闇キャンパスポータルサイト!</t>
-    <rPh sb="2" eb="5">
-      <t>ガッカヤミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>吉田</t>
     <rPh sb="0" eb="2">
       <t>ヨシダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PM学科闇キャンパスポータルサイト</t>
-    <rPh sb="2" eb="5">
-      <t>ガッカヤミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -794,12 +744,73 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>PM学科専用闇キャンパスポータルシステム</t>
+    <rPh sb="2" eb="4">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＰＭ学科専用闇キャンパスポータルシステム</t>
+    <rPh sb="2" eb="4">
+      <t>ガッカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長さ10</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長さ30</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長さ20</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長さ11</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長さ64</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,13 +835,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="MS UI Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="MS UI Gothic"/>
       <family val="3"/>
@@ -873,13 +877,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="MS UI Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="MS UI Gothic"/>
       <family val="3"/>
@@ -1309,7 +1306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1448,19 +1445,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1502,31 +1499,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1583,13 +1580,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1610,13 +1607,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1825,8 +1816,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9445440" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="10255065" y="4029636"/>
+          <a:ext cx="750794" cy="447115"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -2501,17 +2492,19 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>400051</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>55709</xdr:rowOff>
+      <xdr:rowOff>103334</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="70" name="直線矢印コネクタ 69"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1238250" y="1843368"/>
-          <a:ext cx="1" cy="460241"/>
+          <a:ext cx="1" cy="507866"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7687,13 +7680,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>109538</xdr:colOff>
+      <xdr:colOff>90488</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>112859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>804863</xdr:colOff>
+      <xdr:colOff>785813</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>72839</xdr:rowOff>
     </xdr:to>
@@ -7710,7 +7703,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="947738" y="2360759"/>
+          <a:off x="928688" y="2360759"/>
           <a:ext cx="1476375" cy="474330"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
@@ -7856,17 +7849,19 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>27134</xdr:rowOff>
+      <xdr:rowOff>76519</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1657350" y="2843493"/>
-          <a:ext cx="1" cy="460241"/>
+          <a:ext cx="1" cy="509626"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8187,7 +8182,9 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:N12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8200,7 +8197,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -8384,7 +8381,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="71" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="E10" s="71"/>
       <c r="F10" s="71"/>
@@ -8760,7 +8757,7 @@
       <c r="I29" s="62"/>
       <c r="J29" s="62"/>
       <c r="K29" s="77" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L29" s="78"/>
       <c r="M29" s="79" t="s">
@@ -8941,7 +8938,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8968,7 +8965,7 @@
       <c r="B1" s="89"/>
       <c r="C1" s="90"/>
       <c r="D1" s="91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E1" s="92"/>
       <c r="F1" s="93"/>
@@ -8987,7 +8984,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -9015,7 +9012,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>9</v>
@@ -9088,7 +9085,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="87"/>
       <c r="E7" s="86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>
@@ -9731,8 +9728,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9758,11 +9755,11 @@
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="90"/>
-      <c r="D1" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="98"/>
+      <c r="D1" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
@@ -9778,7 +9775,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -9806,7 +9803,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>25</v>
@@ -9867,10 +9864,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -9890,12 +9887,12 @@
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="55" t="s">
         <v>15</v>
       </c>
@@ -9903,13 +9900,13 @@
         <v>23</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -9924,19 +9921,21 @@
         <v>1</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="98"/>
       <c r="G9" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="97"/>
+        <v>47</v>
+      </c>
+      <c r="J9" s="97" t="s">
+        <v>114</v>
+      </c>
       <c r="K9" s="99"/>
       <c r="L9" s="98"/>
       <c r="M9" s="21"/>
@@ -9953,17 +9952,19 @@
         <v>2</v>
       </c>
       <c r="E10" s="97" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F10" s="98"/>
       <c r="G10" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="97"/>
+      <c r="J10" s="97" t="s">
+        <v>114</v>
+      </c>
       <c r="K10" s="99"/>
       <c r="L10" s="98"/>
       <c r="M10" s="21"/>
@@ -9980,17 +9981,19 @@
         <v>3</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="98"/>
       <c r="G11" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="97"/>
+      <c r="J11" s="97" t="s">
+        <v>114</v>
+      </c>
       <c r="K11" s="99"/>
       <c r="L11" s="98"/>
       <c r="M11" s="21"/>
@@ -10007,17 +10010,19 @@
         <v>4</v>
       </c>
       <c r="E12" s="97" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="98"/>
       <c r="G12" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="97"/>
+      <c r="J12" s="97" t="s">
+        <v>115</v>
+      </c>
       <c r="K12" s="99"/>
       <c r="L12" s="98"/>
       <c r="M12" s="21"/>
@@ -10034,17 +10039,19 @@
         <v>5</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="98"/>
       <c r="G13" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="97"/>
+      <c r="J13" s="97" t="s">
+        <v>115</v>
+      </c>
       <c r="K13" s="99"/>
       <c r="L13" s="98"/>
       <c r="M13" s="21"/>
@@ -10061,17 +10068,19 @@
         <v>6</v>
       </c>
       <c r="E14" s="97" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I14" s="26"/>
-      <c r="J14" s="97"/>
+      <c r="J14" s="97" t="s">
+        <v>115</v>
+      </c>
       <c r="K14" s="99"/>
       <c r="L14" s="98"/>
       <c r="M14" s="21"/>
@@ -10088,17 +10097,19 @@
         <v>7</v>
       </c>
       <c r="E15" s="97" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F15" s="98"/>
       <c r="G15" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="J15" s="97"/>
+      <c r="J15" s="97" t="s">
+        <v>115</v>
+      </c>
       <c r="K15" s="99"/>
       <c r="L15" s="98"/>
       <c r="M15" s="21"/>
@@ -10115,14 +10126,14 @@
         <v>8</v>
       </c>
       <c r="E16" s="97" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="98"/>
       <c r="G16" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="97"/>
@@ -10142,17 +10153,19 @@
         <v>9</v>
       </c>
       <c r="E17" s="97" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="98"/>
       <c r="G17" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="J17" s="97"/>
+      <c r="J17" s="97" t="s">
+        <v>116</v>
+      </c>
       <c r="K17" s="99"/>
       <c r="L17" s="98"/>
       <c r="M17" s="3"/>
@@ -10169,14 +10182,14 @@
         <v>10</v>
       </c>
       <c r="E18" s="97" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="98"/>
       <c r="G18" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="97"/>
@@ -10196,14 +10209,14 @@
         <v>11</v>
       </c>
       <c r="E19" s="97" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F19" s="98"/>
       <c r="G19" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="97"/>
@@ -10674,7 +10687,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G6"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10700,11 +10713,11 @@
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="90"/>
-      <c r="D1" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="98"/>
+      <c r="D1" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
@@ -10720,7 +10733,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -10748,7 +10761,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>9</v>
@@ -10803,7 +10816,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J6" s="86"/>
       <c r="K6" s="86"/>
@@ -10823,7 +10836,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="87"/>
       <c r="E7" s="73" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F7" s="73"/>
       <c r="G7" s="73"/>
@@ -10831,7 +10844,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="86" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J7" s="86"/>
       <c r="K7" s="86"/>
@@ -11472,8 +11485,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11499,11 +11512,11 @@
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="90"/>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="98"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
@@ -11519,7 +11532,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -11547,7 +11560,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>25</v>
@@ -11608,10 +11621,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -11631,12 +11644,12 @@
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="55" t="s">
         <v>15</v>
       </c>
@@ -11644,13 +11657,13 @@
         <v>23</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -11665,19 +11678,21 @@
         <v>1</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="98"/>
       <c r="G9" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="97"/>
+        <v>47</v>
+      </c>
+      <c r="J9" s="97" t="s">
+        <v>112</v>
+      </c>
       <c r="K9" s="99"/>
       <c r="L9" s="98"/>
       <c r="M9" s="21"/>
@@ -11694,17 +11709,19 @@
         <v>2</v>
       </c>
       <c r="E10" s="97" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" s="98"/>
       <c r="G10" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="97"/>
+      <c r="J10" s="97" t="s">
+        <v>113</v>
+      </c>
       <c r="K10" s="99"/>
       <c r="L10" s="98"/>
       <c r="M10" s="21"/>
@@ -11721,17 +11738,19 @@
         <v>3</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F11" s="98"/>
       <c r="G11" s="56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="97"/>
+      <c r="J11" s="97" t="s">
+        <v>112</v>
+      </c>
       <c r="K11" s="99"/>
       <c r="L11" s="98"/>
       <c r="M11" s="21"/>
@@ -12367,7 +12386,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51:L52"/>
+      <selection activeCell="J11" sqref="J11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12393,11 +12412,11 @@
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="90"/>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="98"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
@@ -12413,7 +12432,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -12441,7 +12460,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>25</v>
@@ -12502,10 +12521,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -12525,12 +12544,12 @@
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="55" t="s">
         <v>15</v>
       </c>
@@ -12538,13 +12557,13 @@
         <v>23</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -12559,19 +12578,21 @@
         <v>1</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="98"/>
       <c r="G9" s="56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="97"/>
+        <v>47</v>
+      </c>
+      <c r="J9" s="97" t="s">
+        <v>112</v>
+      </c>
       <c r="K9" s="99"/>
       <c r="L9" s="98"/>
       <c r="M9" s="21"/>
@@ -12588,17 +12609,19 @@
         <v>2</v>
       </c>
       <c r="E10" s="97" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="98"/>
       <c r="G10" s="56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10" s="56"/>
-      <c r="J10" s="97"/>
+      <c r="J10" s="97" t="s">
+        <v>112</v>
+      </c>
       <c r="K10" s="99"/>
       <c r="L10" s="98"/>
       <c r="M10" s="21"/>
@@ -12615,17 +12638,19 @@
         <v>3</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" s="98"/>
       <c r="G11" s="56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I11" s="56"/>
-      <c r="J11" s="97"/>
+      <c r="J11" s="97" t="s">
+        <v>112</v>
+      </c>
       <c r="K11" s="99"/>
       <c r="L11" s="98"/>
       <c r="M11" s="21"/>
@@ -13261,7 +13286,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:K7"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13287,8 +13312,8 @@
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="90"/>
-      <c r="D1" s="102" t="s">
-        <v>30</v>
+      <c r="D1" s="91" t="s">
+        <v>111</v>
       </c>
       <c r="E1" s="99"/>
       <c r="F1" s="98"/>
@@ -13307,7 +13332,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -13390,7 +13415,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J6" s="86"/>
       <c r="K6" s="86"/>
@@ -13410,7 +13435,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="87"/>
       <c r="E7" s="73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="73"/>
       <c r="G7" s="73"/>
@@ -13418,7 +13443,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="86" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J7" s="86"/>
       <c r="K7" s="86"/>
@@ -13436,7 +13461,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
@@ -14062,7 +14087,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14088,11 +14113,11 @@
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="90"/>
-      <c r="D1" s="100" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="98"/>
+      <c r="D1" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="92"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
@@ -14108,7 +14133,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -14200,7 +14225,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -14222,10 +14247,10 @@
       <c r="D8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="30" t="s">
         <v>15</v>
       </c>
@@ -14235,11 +14260,11 @@
       <c r="I8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="101" t="s">
+      <c r="J8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -14254,17 +14279,17 @@
         <v>1</v>
       </c>
       <c r="E9" s="97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="98"/>
       <c r="G9" s="57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J9" s="97"/>
       <c r="K9" s="99"/>
@@ -14283,14 +14308,14 @@
         <v>2</v>
       </c>
       <c r="E10" s="97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="98"/>
       <c r="G10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>46</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="97"/>
@@ -14310,14 +14335,14 @@
         <v>3</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="98"/>
       <c r="G11" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="97"/>
@@ -14337,14 +14362,14 @@
         <v>4</v>
       </c>
       <c r="E12" s="97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="98"/>
       <c r="G12" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="97"/>
@@ -14364,14 +14389,14 @@
         <v>5</v>
       </c>
       <c r="E13" s="97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" s="98"/>
       <c r="G13" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="97"/>
@@ -14967,8 +14992,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14995,7 +15020,7 @@
       <c r="B1" s="89"/>
       <c r="C1" s="90"/>
       <c r="D1" s="91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E1" s="92"/>
       <c r="F1" s="93"/>
@@ -15014,7 +15039,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
         <v>42935</v>
@@ -15042,7 +15067,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>9</v>
@@ -15115,7 +15140,7 @@
       <c r="C7" s="87"/>
       <c r="D7" s="87"/>
       <c r="E7" s="86" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>

--- a/完成体を入れろ/内部設計書.xlsx
+++ b/完成体を入れろ/内部設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\完成体を入れろ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akaoka\Documents\GitHub\PM-\完成体を入れろ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="125">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -785,23 +785,139 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>長さ20</t>
-    <rPh sb="0" eb="1">
+    <t>下表に本システムの物理データ設計として、postsテーブル一覧を記す。</t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの科目名を格納する、長さ20</t>
+    <rPh sb="5" eb="8">
+      <t>カモクメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
       <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>長さ11</t>
-    <rPh sb="0" eb="1">
+    <t>過去問の画像</t>
+    <rPh sb="0" eb="3">
+      <t>カコモン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの出席数を格納する</t>
+    <rPh sb="5" eb="7">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの教科書を格納する</t>
+    <rPh sb="5" eb="8">
+      <t>キョウカショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの講師名を格納する、、長さ20</t>
+    <rPh sb="5" eb="8">
+      <t>コウシメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>長さ64</t>
-    <rPh sb="0" eb="1">
+    <t>過去問の画像のMIMEタイプ、長さ64</t>
+    <rPh sb="0" eb="3">
+      <t>カコモン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
       <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの提出評価を格納する</t>
+    <rPh sb="5" eb="7">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの中間試験評価を格納する</t>
+    <rPh sb="5" eb="9">
+      <t>チュウカンシケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの単位数を格納する</t>
+    <rPh sb="5" eb="8">
+      <t>タンイスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスのセメスタを格納する</t>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9729,7 +9845,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:L18"/>
+      <selection activeCell="J10" sqref="J10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9739,8 +9855,9 @@
     <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
     <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
     <col min="14" max="15" width="10.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
@@ -9826,7 +9943,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -9933,9 +10050,7 @@
       <c r="I9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="97" t="s">
-        <v>114</v>
-      </c>
+      <c r="J9" s="97"/>
       <c r="K9" s="99"/>
       <c r="L9" s="98"/>
       <c r="M9" s="21"/>
@@ -9963,7 +10078,7 @@
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K10" s="99"/>
       <c r="L10" s="98"/>
@@ -9992,7 +10107,7 @@
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="97" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K11" s="99"/>
       <c r="L11" s="98"/>
@@ -10021,7 +10136,7 @@
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="97" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K12" s="99"/>
       <c r="L12" s="98"/>
@@ -10050,7 +10165,7 @@
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="97" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K13" s="99"/>
       <c r="L13" s="98"/>
@@ -10079,7 +10194,7 @@
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="97" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K14" s="99"/>
       <c r="L14" s="98"/>
@@ -10108,7 +10223,7 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="97" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K15" s="99"/>
       <c r="L15" s="98"/>
@@ -10136,7 +10251,9 @@
         <v>57</v>
       </c>
       <c r="I16" s="26"/>
-      <c r="J16" s="97"/>
+      <c r="J16" s="97" t="s">
+        <v>116</v>
+      </c>
       <c r="K16" s="99"/>
       <c r="L16" s="98"/>
       <c r="M16" s="21"/>
@@ -10164,7 +10281,7 @@
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="97" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K17" s="99"/>
       <c r="L17" s="98"/>
@@ -10192,7 +10309,9 @@
         <v>57</v>
       </c>
       <c r="I18" s="26"/>
-      <c r="J18" s="97"/>
+      <c r="J18" s="97" t="s">
+        <v>117</v>
+      </c>
       <c r="K18" s="99"/>
       <c r="L18" s="98"/>
       <c r="M18" s="2"/>
@@ -10219,7 +10338,9 @@
         <v>77</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="J19" s="97"/>
+      <c r="J19" s="97" t="s">
+        <v>118</v>
+      </c>
       <c r="K19" s="99"/>
       <c r="L19" s="98"/>
       <c r="M19" s="2"/>
@@ -10628,37 +10749,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="E26:F26"/>
@@ -10669,6 +10759,37 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11456,17 +11577,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12327,35 +12448,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="E22:F22"/>
@@ -12368,6 +12460,35 @@
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13227,37 +13348,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="E26:F26"/>
@@ -13268,6 +13358,37 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14057,17 +14178,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14934,25 +15055,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -14969,12 +15077,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/完成体を入れろ/内部設計書.xlsx
+++ b/完成体を入れろ/内部設計書.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akaoka\Documents\GitHub\PM-\完成体を入れろ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\完成体を入れろ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
     <sheet name="処理 (2)" sheetId="15" r:id="rId2"/>
-    <sheet name="データ (2)" sheetId="16" r:id="rId3"/>
+    <sheet name="データ (5)" sheetId="24" r:id="rId3"/>
     <sheet name="処理 (3)" sheetId="19" r:id="rId4"/>
     <sheet name="データ (3)" sheetId="20" r:id="rId5"/>
     <sheet name="データ (4)" sheetId="21" r:id="rId6"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="140">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -303,28 +303,6 @@
     <t>データテーブル設計</t>
     <rPh sb="7" eb="9">
       <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下表に本システムの物理データ設計として、データテーブル一覧を記す。</t>
-    <rPh sb="0" eb="2">
-      <t>カヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>シル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -454,14 +432,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>過去問・シラバス管理テーブル</t>
     <rPh sb="0" eb="3">
       <t>カコモン</t>
@@ -469,26 +439,10 @@
     <rPh sb="8" eb="10">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キー（Key）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいえ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -500,31 +454,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>teacher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>teacher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいえ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>semesuta</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -536,14 +466,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>teisyutu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>imgdat</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -552,33 +474,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいえ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>syusseki</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>kyoukasyo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいえ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像管理テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -602,13 +498,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -778,10 +667,263 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>長さ30</t>
+    <t>長さ11</t>
     <rPh sb="0" eb="1">
       <t>ナガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mediumblob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下表に本システムの物理データ設計として、seikaテーブル一覧を記す。</t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下表に本システムの物理データ設計として、senseiテーブル一覧を記す。</t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下表に本システムの物理データ設計として、tweetsテーブル一覧を記す。</t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの教科書を格納する</t>
+    <rPh sb="5" eb="8">
+      <t>キョウカショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの出席数を格納する</t>
+    <rPh sb="5" eb="7">
+      <t>シュッセキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>syusseki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去問の画像のMIMEタイプ、長さ64</t>
+    <rPh sb="0" eb="3">
+      <t>カコモン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去問の画像</t>
+    <rPh sb="0" eb="3">
+      <t>カコモン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの提出評価を格納する</t>
+    <rPh sb="5" eb="7">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>teisyutu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの中間試験評価を格納する</t>
+    <rPh sb="5" eb="9">
+      <t>チュウカンシケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの単位数を格納する</t>
+    <rPh sb="5" eb="8">
+      <t>タンイスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスのセメスタを格納する</t>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>semesuta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの講師名を格納する、、長さ20</t>
+    <rPh sb="5" eb="8">
+      <t>コウシメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>teacher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバスの科目名を格納する、長さ20</t>
+    <rPh sb="5" eb="8">
+      <t>カモクメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -807,71 +949,65 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シラバスの科目名を格納する、長さ20</t>
-    <rPh sb="5" eb="8">
-      <t>カモクメイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナガ</t>
-    </rPh>
+    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>過去問の画像</t>
-    <rPh sb="0" eb="3">
-      <t>カコモン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
+    <t>kimatu</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シラバスの出席数を格納する</t>
+    <t>シラバスの期末試験評価を格納する</t>
     <rPh sb="5" eb="7">
-      <t>シュッセキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スウ</t>
+      <t>キマツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シケン</t>
     </rPh>
     <rPh sb="9" eb="11">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>カクノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シラバスの教科書を格納する</t>
-    <rPh sb="5" eb="8">
-      <t>キョウカショ</t>
+    <t>成果物メニューの各演習名を格納、長さ30</t>
+    <rPh sb="0" eb="3">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カク</t>
     </rPh>
     <rPh sb="9" eb="11">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>カクノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シラバスの講師名を格納する、、長さ20</t>
-    <rPh sb="5" eb="8">
-      <t>コウシメイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
+    <t>各演習のリンクを格納、長さ10</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
       <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>過去問の画像のMIMEタイプ、長さ64</t>
-    <rPh sb="0" eb="3">
-      <t>カコモン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
+    <t>各成果物ページの先生名を格納、長さ10</t>
+    <rPh sb="0" eb="4">
+      <t>カクセイカブツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクノウ</t>
     </rPh>
     <rPh sb="15" eb="16">
       <t>ナガ</t>
@@ -879,46 +1015,153 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シラバスの提出評価を格納する</t>
-    <rPh sb="5" eb="7">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
+    <t>各成果物ページのグループ名を格納、長さ10</t>
+    <rPh sb="0" eb="4">
+      <t>カクセイカブツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>カクノウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シラバスの中間試験評価を格納する</t>
-    <rPh sb="5" eb="9">
-      <t>チュウカンシケン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
+    <t>各成果物ページの成果物画像を格納</t>
+    <rPh sb="0" eb="4">
+      <t>カクセイカブツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>カクノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シラバスの単位数を格納する</t>
-    <rPh sb="5" eb="8">
-      <t>タンイスウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクノウ</t>
+    <t>成果物の画像のMIMEタイプ、長さ10</t>
+    <rPh sb="0" eb="2">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シラバスのセメスタを格納する</t>
-    <rPh sb="10" eb="12">
+    <t>時間割登録画面で登録した日付を格納</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
       <t>カクノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割登録画面で登録した時間割画像</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割画像のMIME、長さ30</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割登録画面の登録した時間割名を格納、長さ140</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割画像管理テーブル</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1422,7 +1665,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1594,9 +1837,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1604,6 +1844,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1932,8 +2178,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10255065" y="4029636"/>
-          <a:ext cx="750794" cy="447115"/>
+          <a:off x="9445440" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3185,8 +3431,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="286551" y="3217689"/>
-          <a:ext cx="1352710" cy="571501"/>
+          <a:off x="265894" y="2968752"/>
+          <a:ext cx="1249276" cy="527865"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3820,8 +4066,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10277397" y="3957278"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="9445440" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -4572,8 +4818,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3577879" y="3256108"/>
-          <a:ext cx="1352710" cy="571501"/>
+          <a:off x="3296483" y="3004123"/>
+          <a:ext cx="1241907" cy="526341"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -7544,8 +7790,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10255065" y="4029636"/>
-          <a:ext cx="750794" cy="447115"/>
+          <a:off x="9445440" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -8313,7 +8559,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -8331,10 +8577,10 @@
       <c r="O1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="65">
+      <c r="P1" s="66">
         <v>42934</v>
       </c>
-      <c r="Q1" s="66"/>
+      <c r="Q1" s="67"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
@@ -8351,11 +8597,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
+      <c r="O2" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="69"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="40"/>
@@ -8400,17 +8646,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -8421,15 +8667,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -8440,15 +8686,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -8496,19 +8742,19 @@
       <c r="A10" s="40"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
+      <c r="D10" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="41"/>
@@ -8517,17 +8763,17 @@
       <c r="A11" s="40"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="41"/>
@@ -8536,17 +8782,17 @@
       <c r="A12" s="40"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="41"/>
@@ -8556,17 +8802,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -8577,15 +8823,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -8596,15 +8842,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -8615,15 +8861,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -8634,15 +8880,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -8673,15 +8919,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
       <c r="M19" s="37"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -8694,13 +8940,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
       <c r="M20" s="37"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -8713,13 +8959,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="37"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
       <c r="M21" s="37"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -8732,13 +8978,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
       <c r="M22" s="37"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -8751,13 +8997,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
       <c r="M23" s="37"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -8770,13 +9016,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
       <c r="M24" s="37"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -8789,13 +9035,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
       <c r="M25" s="37"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -8850,15 +9096,15 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="83" t="s">
+      <c r="J28" s="57"/>
+      <c r="K28" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="86"/>
       <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -8870,20 +9116,20 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="L29" s="78"/>
-      <c r="M29" s="79" t="s">
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29" s="79"/>
+      <c r="M29" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79" t="s">
+      <c r="N29" s="80"/>
+      <c r="O29" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="82"/>
+      <c r="P29" s="83"/>
       <c r="Q29" s="41"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8895,14 +9141,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="75"/>
       <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8914,14 +9160,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="74"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="75"/>
       <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8933,14 +9179,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="74"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="75"/>
       <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8952,14 +9198,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="74"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="75"/>
       <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8971,14 +9217,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="74"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="75"/>
       <c r="Q34" s="41"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -8990,14 +9236,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="76"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="77"/>
       <c r="Q35" s="41"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -9075,32 +9321,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="55"/>
       <c r="M1" s="53"/>
       <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -9128,7 +9374,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>9</v>
@@ -9169,51 +9415,51 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="73">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="74">
         <v>1</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="54" t="s">
         <v>6</v>
       </c>
       <c r="L7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -9844,8 +10090,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:L10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9867,32 +10113,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="55" t="s">
+      <c r="H1" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -9920,7 +10166,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>25</v>
@@ -9943,7 +10189,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -9981,10 +10227,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -10004,26 +10250,26 @@
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="55" t="s">
+      <c r="F8" s="101"/>
+      <c r="G8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="100" t="s">
+      <c r="I8" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="2"/>
@@ -10034,25 +10280,25 @@
       <c r="B9" s="16"/>
       <c r="C9" s="22"/>
       <c r="D9" s="29">
-        <f>ROW()-8</f>
+        <f t="shared" ref="D9:D26" si="0">ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="98"/>
+      <c r="E9" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="99"/>
       <c r="G9" s="26" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="97"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="98"/>
+        <v>46</v>
+      </c>
+      <c r="J9" s="98"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="2"/>
@@ -10063,25 +10309,25 @@
       <c r="B10" s="16"/>
       <c r="C10" s="22"/>
       <c r="D10" s="29">
-        <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E10" s="97" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="98"/>
+      <c r="E10" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="99"/>
       <c r="G10" s="26" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" s="99"/>
-      <c r="L10" s="98"/>
+      <c r="J10" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="2"/>
@@ -10095,22 +10341,22 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="98"/>
+      <c r="E11" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="99"/>
       <c r="G11" s="26" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="98"/>
+      <c r="J11" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="100"/>
+      <c r="L11" s="99"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
       <c r="O11" s="2"/>
@@ -10124,22 +10370,22 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="98"/>
+      <c r="E12" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="99"/>
       <c r="G12" s="26" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" s="99"/>
-      <c r="L12" s="98"/>
+      <c r="J12" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="100"/>
+      <c r="L12" s="99"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="2"/>
@@ -10153,22 +10399,22 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="98"/>
+      <c r="E13" s="98" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="99"/>
       <c r="G13" s="26" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" s="99"/>
-      <c r="L13" s="98"/>
+      <c r="J13" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="100"/>
+      <c r="L13" s="99"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="2"/>
@@ -10182,22 +10428,22 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="98"/>
+      <c r="E14" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="99"/>
       <c r="G14" s="26" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I14" s="26"/>
-      <c r="J14" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" s="99"/>
-      <c r="L14" s="98"/>
+      <c r="J14" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="100"/>
+      <c r="L14" s="99"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="2"/>
@@ -10211,22 +10457,22 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="98"/>
+      <c r="E15" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="99"/>
       <c r="G15" s="26" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="J15" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="K15" s="99"/>
-      <c r="L15" s="98"/>
+      <c r="J15" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="100"/>
+      <c r="L15" s="99"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="2"/>
@@ -10240,22 +10486,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="98"/>
+      <c r="E16" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="99"/>
       <c r="G16" s="26" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I16" s="26"/>
-      <c r="J16" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="99"/>
-      <c r="L16" s="98"/>
+      <c r="J16" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="100"/>
+      <c r="L16" s="99"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="2"/>
@@ -10269,22 +10515,22 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="98"/>
+      <c r="E17" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="99"/>
       <c r="G17" s="26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="I17" s="26"/>
-      <c r="J17" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" s="99"/>
-      <c r="L17" s="98"/>
+      <c r="J17" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="100"/>
+      <c r="L17" s="99"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -10298,22 +10544,22 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="98"/>
+      <c r="E18" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="99"/>
       <c r="G18" s="26" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I18" s="26"/>
-      <c r="J18" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18" s="99"/>
-      <c r="L18" s="98"/>
+      <c r="J18" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="100"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -10327,22 +10573,22 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="98"/>
+      <c r="E19" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="99"/>
       <c r="G19" s="26" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="J19" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="99"/>
-      <c r="L19" s="98"/>
+      <c r="J19" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="100"/>
+      <c r="L19" s="99"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -10356,14 +10602,22 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="E20" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="99"/>
+      <c r="G20" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="I20" s="26"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="98"/>
+      <c r="J20" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="100"/>
+      <c r="L20" s="99"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -10377,14 +10631,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="99"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -10398,14 +10652,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="99"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -10419,14 +10673,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="99"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -10440,14 +10694,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="99"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -10461,14 +10715,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="99"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -10482,14 +10736,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="97"/>
-      <c r="F26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="99"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -10749,6 +11003,37 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="E26:F26"/>
@@ -10759,37 +11044,6 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10807,8 +11061,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10829,32 +11083,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="55"/>
       <c r="M1" s="53"/>
       <c r="N1" s="55" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -10882,7 +11136,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>9</v>
@@ -10923,58 +11177,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="73">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="74">
         <v>1</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
+      <c r="I6" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
+      <c r="I7" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -10983,6 +11237,2627 @@
       <c r="C8" s="14"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="0.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="29">
+        <f t="shared" ref="D9:D26" si="0">ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="99"/>
+      <c r="G9" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="100"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="29">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="29">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="29">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="0.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="29">
+        <f t="shared" ref="D9:D26" si="0">ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="99"/>
+      <c r="G9" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="56"/>
+      <c r="J11" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="100"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="100"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="99"/>
+      <c r="G13" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="100"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="29">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="29">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="29">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J37" sqref="J36:J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="10.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="100"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="74">
+        <v>1</v>
+      </c>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
       <c r="H8" s="23"/>
@@ -11599,15 +14474,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:L10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11615,52 +14490,52 @@
     <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
     <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
     <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
+    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="2.25" style="1"/>
+    <col min="18" max="18" width="3.25" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="55" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="55" t="s">
+      <c r="H1" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" s="19">
+      <c r="N1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="19">
         <v>42934</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11675,13 +14550,12 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>25</v>
@@ -11697,14 +14571,13 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11717,10 +14590,9 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11735,17 +14607,16 @@
       <c r="L6" s="32"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -11756,101 +14627,97 @@
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N7" s="2"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="55" t="s">
+      <c r="F8" s="101"/>
+      <c r="G8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="100" t="s">
+      <c r="I8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N8" s="2"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="22"/>
       <c r="D9" s="29">
-        <f t="shared" ref="D9:D26" si="0">ROW()-8</f>
+        <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="99"/>
+      <c r="G9" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="98"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N9" s="2"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="22"/>
       <c r="D10" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="97" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="98"/>
+      <c r="E10" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="99"/>
       <c r="G10" s="56" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="I10" s="26"/>
-      <c r="J10" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="99"/>
-      <c r="L10" s="98"/>
+      <c r="J10" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N10" s="2"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="22"/>
@@ -11858,28 +14725,27 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="98"/>
+      <c r="E11" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="99"/>
       <c r="G11" s="56" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="98"/>
+      <c r="J11" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="100"/>
+      <c r="L11" s="99"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N11" s="2"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="22"/>
@@ -11887,20 +14753,27 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="E12" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="98"/>
+      <c r="J12" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="100"/>
+      <c r="L12" s="99"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N12" s="2"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="22"/>
@@ -11908,20 +14781,27 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="99"/>
+      <c r="G13" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>45</v>
+      </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="98"/>
+      <c r="J13" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="100"/>
+      <c r="L13" s="99"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N13" s="2"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="22"/>
@@ -11929,20 +14809,19 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="99"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N14" s="2"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="22"/>
@@ -11950,20 +14829,19 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="99"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N15" s="2"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="22"/>
@@ -11971,20 +14849,19 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="99"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N16" s="2"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="27"/>
@@ -11992,20 +14869,19 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="99"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N17" s="2"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12013,20 +14889,19 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12034,20 +14909,19 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="99"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -12055,20 +14929,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="99"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -12076,20 +14949,19 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="26"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="99"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -12097,20 +14969,19 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="99"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -12118,20 +14989,19 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
       <c r="I23" s="26"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="99"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -12139,20 +15009,19 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="99"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12160,20 +15029,19 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="99"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -12181,20 +15049,19 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="97"/>
-      <c r="F26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="99"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -12209,10 +15076,9 @@
       <c r="L27" s="32"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -12227,10 +15093,9 @@
       <c r="L28" s="32"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -12245,10 +15110,9 @@
       <c r="L29" s="32"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -12263,10 +15127,9 @@
       <c r="L30" s="32"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -12281,10 +15144,9 @@
       <c r="L31" s="32"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12299,10 +15161,9 @@
       <c r="L32" s="32"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -12317,10 +15178,9 @@
       <c r="L33" s="32"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -12335,10 +15195,9 @@
       <c r="L34" s="32"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -12353,10 +15212,9 @@
       <c r="L35" s="32"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -12371,10 +15229,9 @@
       <c r="L36" s="32"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -12389,10 +15246,9 @@
       <c r="L37" s="32"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -12407,10 +15263,9 @@
       <c r="L38" s="32"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -12425,10 +15280,9 @@
       <c r="L39" s="32"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -12443,15 +15297,10 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="11"/>
+      <c r="O40" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="E23:F23"/>
@@ -12462,2605 +15311,15 @@
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" s="19">
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="29">
-        <f t="shared" ref="D9:D26" si="0">ROW()-8</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="99"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="29">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E11" s="97" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="29">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="29">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="29">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="29">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E26" s="97"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="19">
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="73">
-        <v>1</v>
-      </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="19">
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="100" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="29">
-        <f>ROW()-8</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="97" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="97"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="29">
-        <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="29">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E11" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E12" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E13" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="29">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="29">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="29">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="29">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E26" s="97"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -15077,25 +15336,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15135,32 +15381,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="61" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="61" t="s">
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="60" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="P1" s="19">
         <v>42935</v>
@@ -15188,7 +15434,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>9</v>
@@ -15229,51 +15475,51 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="73">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="74">
         <v>1</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="60" t="s">
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="60" t="s">
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="60" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="60" t="s">
+      <c r="L7" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">

--- a/完成体を入れろ/内部設計書.xlsx
+++ b/完成体を入れろ/内部設計書.xlsx
@@ -485,28 +485,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PDF表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索処理</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいえ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -518,19 +497,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいえ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいえ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -566,10 +537,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいえ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -660,13 +627,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>長さ10</t>
-    <rPh sb="0" eb="1">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>長さ11</t>
     <rPh sb="0" eb="1">
       <t>ナガ</t>
@@ -679,10 +639,6 @@
   </si>
   <si>
     <t>mime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいえ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -973,6 +929,140 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>各成果物ページの成果物画像を格納</t>
+    <rPh sb="0" eb="4">
+      <t>カクセイカブツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割登録画面で登録した日付を格納</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割登録画面で登録した時間割画像</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割画像のMIME、長さ30</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割登録画面の登録した時間割名を格納、長さ140</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割画像管理テーブル</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習検索処理</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>成果物メニューの各演習名を格納、長さ30</t>
     <rPh sb="0" eb="3">
       <t>セイカブツ</t>
@@ -992,12 +1082,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各演習のリンクを格納、長さ10</t>
+    <t>長さ10</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各演習のリンクを格納</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1031,137 +1125,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各成果物ページの成果物画像を格納</t>
-    <rPh sb="0" eb="4">
-      <t>カクセイカブツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
+    <t>成果物の画像のMIMEタイプ、長さ10</t>
+    <rPh sb="0" eb="2">
       <t>セイカ</t>
     </rPh>
-    <rPh sb="10" eb="11">
+    <rPh sb="2" eb="3">
       <t>ブツ</t>
     </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクノウ</t>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>成果物の画像のMIMEタイプ、長さ10</t>
-    <rPh sb="0" eb="2">
-      <t>セイカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナガ</t>
-    </rPh>
+    <t>いいえ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間割登録画面で登録した日付を格納</t>
-    <rPh sb="0" eb="3">
-      <t>ジカンワリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクノウ</t>
-    </rPh>
+    <t>いいえ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間割登録画面で登録した時間割画像</t>
-    <rPh sb="0" eb="3">
-      <t>ジカンワリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ジカンワリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガゾウ</t>
-    </rPh>
+    <t>いいえ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間割画像のMIME、長さ30</t>
-    <rPh sb="0" eb="3">
-      <t>ジカンワリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナガ</t>
-    </rPh>
+    <t>いいえ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間割登録画面の登録した時間割名を格納、長さ140</t>
-    <rPh sb="0" eb="3">
-      <t>ジカンワリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ジカンワリ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナガ</t>
-    </rPh>
+    <t>いいえ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間割画像管理テーブル</t>
-    <rPh sb="0" eb="3">
-      <t>ジカンワリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2</t>
+    <t>いいえ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2178,8 +2175,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9445440" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="10255065" y="4029636"/>
+          <a:ext cx="750794" cy="447115"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -3431,8 +3428,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="265894" y="2968752"/>
-          <a:ext cx="1249276" cy="527865"/>
+          <a:off x="286551" y="3217689"/>
+          <a:ext cx="1352710" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -4066,8 +4063,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9445440" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="10277397" y="3957278"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -4415,14 +4412,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>176092</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>94450</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>118463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>744391</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>51226</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4431,8 +4428,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1376242" y="1980400"/>
-          <a:ext cx="168249" cy="447113"/>
+          <a:off x="3577878" y="1319093"/>
+          <a:ext cx="1352710" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4486,14 +4483,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>72038</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>96051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>786013</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4801</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4502,8 +4499,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1336221" y="2643788"/>
-          <a:ext cx="202267" cy="447113"/>
+          <a:off x="3537857" y="1969034"/>
+          <a:ext cx="1434353" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4539,16 +4536,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>PDF</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -4556,7 +4543,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>情報の問合せ</a:t>
+            <a:t>画像情報の問合せ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4566,65 +4553,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>60834</xdr:colOff>
+      <xdr:colOff>68036</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>49625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>61273</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>94450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="カギ線コネクタ 27"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="2"/>
-          <a:endCxn id="26" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1324516" y="1872043"/>
-          <a:ext cx="216275" cy="439"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>68036</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>27212</xdr:rowOff>
+      <xdr:rowOff>51225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>68837</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>72037</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>96050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4636,8 +4573,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1331899" y="2535249"/>
-          <a:ext cx="216275" cy="801"/>
+          <a:off x="4148177" y="1862176"/>
+          <a:ext cx="212913" cy="801"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4669,14 +4606,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>68037</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4801</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>68837</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38419</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>62432</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4688,8 +4625,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1337503" y="3193035"/>
-          <a:ext cx="205068" cy="800"/>
+          <a:off x="4153781" y="2506515"/>
+          <a:ext cx="201706" cy="800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4721,14 +4658,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>179293</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>140875</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>164888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>760399</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>73638</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>97651</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4737,8 +4674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1369918" y="4084225"/>
-          <a:ext cx="171531" cy="447113"/>
+          <a:off x="3581079" y="3382577"/>
+          <a:ext cx="1365517" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -4774,16 +4711,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>PDF</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -4791,7 +4718,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>を画面に表示</a:t>
+            <a:t>画像を画面に表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4802,14 +4729,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>176093</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38419</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>62432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>744392</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>105655</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129668</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4818,8 +4745,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3296483" y="3004123"/>
-          <a:ext cx="1241907" cy="526341"/>
+          <a:off x="3577879" y="2607768"/>
+          <a:ext cx="1352710" cy="571501"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -4911,18 +4838,11 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>PDF</a:t>
-            </a:r>
-            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
                 <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>が存在する</a:t>
+              <a:t>画像が存在する</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -4934,14 +4854,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>845245</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>140873</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>164886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>642852</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>73636</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>97649</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4950,8 +4870,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1540570" y="4084223"/>
-          <a:ext cx="350057" cy="447113"/>
+          <a:off x="5031442" y="3382575"/>
+          <a:ext cx="1582544" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -5005,14 +4925,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>744392</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>156082</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>635991</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>140873</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>164886</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5024,8 +4944,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1544492" y="3585082"/>
-          <a:ext cx="167824" cy="499141"/>
+          <a:off x="4930589" y="2893519"/>
+          <a:ext cx="892125" cy="489056"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5053,97 +4973,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>176090</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>128067</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>745272</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>49625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="フローチャート : 手操作入力 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1376240" y="1328217"/>
-          <a:ext cx="169132" cy="435908"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>PDF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>表示ボタン押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>786013</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>116862</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>954102</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146477</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5154,8 +4993,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1538488" y="2860062"/>
-          <a:ext cx="6164" cy="5602"/>
+          <a:off x="4972210" y="2181946"/>
+          <a:ext cx="168089" cy="5602"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5187,14 +5026,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>970110</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>59230</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>708454</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3201</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5203,8 +5042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1541610" y="2630980"/>
-          <a:ext cx="347944" cy="458321"/>
+          <a:off x="5156307" y="1956226"/>
+          <a:ext cx="1523281" cy="448236"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -5258,14 +5097,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>70438</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>105653</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>70782</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139271</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5274,8 +5113,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1339676" y="3979915"/>
-          <a:ext cx="205068" cy="344"/>
+          <a:off x="4155954" y="3279948"/>
+          <a:ext cx="201706" cy="344"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5303,6 +5142,124 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>176093</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="363689" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362290" y="3105630"/>
+          <a:ext cx="363689" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Yes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>781211</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="317203" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4967408" y="2657395"/>
+          <a:ext cx="317203" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7790,8 +7747,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9445440" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="10255065" y="4029636"/>
+          <a:ext cx="750794" cy="447115"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -8559,7 +8516,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -8743,7 +8700,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="72" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="72"/>
@@ -9119,7 +9076,7 @@
       <c r="I29" s="63"/>
       <c r="J29" s="63"/>
       <c r="K29" s="78" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L29" s="79"/>
       <c r="M29" s="80" t="s">
@@ -9327,7 +9284,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="91"/>
       <c r="D1" s="92" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
@@ -10119,7 +10076,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="91"/>
       <c r="D1" s="92" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
@@ -10166,7 +10123,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>25</v>
@@ -10189,7 +10146,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10227,7 +10184,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>49</v>
@@ -10250,7 +10207,7 @@
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E8" s="101" t="s">
         <v>14</v>
@@ -10284,14 +10241,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F9" s="99"/>
       <c r="G9" s="26" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>46</v>
@@ -10324,7 +10281,7 @@
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="98" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="K10" s="100"/>
       <c r="L10" s="99"/>
@@ -10342,18 +10299,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F11" s="99"/>
       <c r="G11" s="26" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="98" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K11" s="100"/>
       <c r="L11" s="99"/>
@@ -10371,18 +10328,18 @@
         <v>4</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="26" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>42</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="98" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K12" s="100"/>
       <c r="L12" s="99"/>
@@ -10404,14 +10361,14 @@
       </c>
       <c r="F13" s="99"/>
       <c r="G13" s="26" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>42</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="98" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K13" s="100"/>
       <c r="L13" s="99"/>
@@ -10440,7 +10397,7 @@
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="98" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K14" s="100"/>
       <c r="L14" s="99"/>
@@ -10458,7 +10415,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="98" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="26" t="s">
@@ -10469,7 +10426,7 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="98" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K15" s="100"/>
       <c r="L15" s="99"/>
@@ -10487,7 +10444,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F16" s="99"/>
       <c r="G16" s="26" t="s">
@@ -10498,7 +10455,7 @@
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="98" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K16" s="100"/>
       <c r="L16" s="99"/>
@@ -10527,7 +10484,7 @@
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="98" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K17" s="100"/>
       <c r="L17" s="99"/>
@@ -10556,7 +10513,7 @@
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="98" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K18" s="100"/>
       <c r="L18" s="99"/>
@@ -10574,18 +10531,18 @@
         <v>11</v>
       </c>
       <c r="E19" s="98" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F19" s="99"/>
       <c r="G19" s="26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="98" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K19" s="100"/>
       <c r="L19" s="99"/>
@@ -10614,7 +10571,7 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="98" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K20" s="100"/>
       <c r="L20" s="99"/>
@@ -11061,8 +11018,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11089,7 +11046,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="91"/>
       <c r="D1" s="92" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
@@ -11108,7 +11065,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -11136,7 +11093,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>9</v>
@@ -11191,7 +11148,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J6" s="87"/>
       <c r="K6" s="87"/>
@@ -11211,7 +11168,7 @@
       <c r="C7" s="88"/>
       <c r="D7" s="88"/>
       <c r="E7" s="74" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="F7" s="74"/>
       <c r="G7" s="74"/>
@@ -11219,7 +11176,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="87" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
@@ -11860,8 +11817,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11890,7 +11847,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="91"/>
       <c r="D1" s="92" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
@@ -11909,7 +11866,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -11937,7 +11894,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>25</v>
@@ -11960,7 +11917,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11998,10 +11955,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -12021,7 +11978,7 @@
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E8" s="101" t="s">
         <v>14</v>
@@ -12034,7 +11991,7 @@
         <v>23</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J8" s="101" t="s">
         <v>10</v>
@@ -12055,20 +12012,20 @@
         <v>1</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F9" s="99"/>
       <c r="G9" s="56" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="K9" s="100"/>
       <c r="L9" s="99"/>
@@ -12086,14 +12043,14 @@
         <v>2</v>
       </c>
       <c r="E10" s="98" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F10" s="99"/>
       <c r="G10" s="56" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="98" t="s">
@@ -12115,18 +12072,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F11" s="99"/>
       <c r="G11" s="56" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="98" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K11" s="100"/>
       <c r="L11" s="99"/>
@@ -12762,8 +12719,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12792,7 +12749,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="91"/>
       <c r="D1" s="92" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
@@ -12811,7 +12768,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -12862,7 +12819,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -12900,10 +12857,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -12923,7 +12880,7 @@
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E8" s="101" t="s">
         <v>14</v>
@@ -12936,7 +12893,7 @@
         <v>23</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J8" s="101" t="s">
         <v>10</v>
@@ -12957,20 +12914,20 @@
         <v>1</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F9" s="99"/>
       <c r="G9" s="56" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="I9" s="56" t="s">
         <v>46</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="K9" s="100"/>
       <c r="L9" s="99"/>
@@ -12995,11 +12952,11 @@
         <v>52</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="I10" s="56"/>
       <c r="J10" s="98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K10" s="100"/>
       <c r="L10" s="99"/>
@@ -13017,18 +12974,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F11" s="99"/>
       <c r="G11" s="56" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="I11" s="56"/>
       <c r="J11" s="98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K11" s="100"/>
       <c r="L11" s="99"/>
@@ -13046,18 +13003,18 @@
         <v>4</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="56" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H12" s="56" t="s">
         <v>42</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="98" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K12" s="100"/>
       <c r="L12" s="99"/>
@@ -13075,14 +13032,14 @@
         <v>5</v>
       </c>
       <c r="E13" s="98" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F13" s="99"/>
       <c r="G13" s="56" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="98" t="s">
@@ -13708,7 +13665,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="91"/>
       <c r="D1" s="92" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E1" s="100"/>
       <c r="F1" s="99"/>
@@ -13838,7 +13795,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="87" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
@@ -14479,7 +14436,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
@@ -14510,7 +14467,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="91"/>
       <c r="D1" s="92" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
@@ -14577,7 +14534,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -14616,7 +14573,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -14681,7 +14638,7 @@
         <v>46</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K9" s="100"/>
       <c r="L9" s="99"/>
@@ -14709,7 +14666,7 @@
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="98" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K10" s="100"/>
       <c r="L10" s="99"/>
@@ -14737,7 +14694,7 @@
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="98" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K11" s="100"/>
       <c r="L11" s="99"/>
@@ -14765,7 +14722,7 @@
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="98" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K12" s="100"/>
       <c r="L12" s="99"/>
@@ -14793,7 +14750,7 @@
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="98" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="K13" s="100"/>
       <c r="L13" s="99"/>
@@ -15387,7 +15344,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="91"/>
       <c r="D1" s="92" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
@@ -15406,7 +15363,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P1" s="19">
         <v>42935</v>
@@ -15507,7 +15464,7 @@
       <c r="C7" s="88"/>
       <c r="D7" s="88"/>
       <c r="E7" s="87" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87"/>

--- a/完成体を入れろ/内部設計書.xlsx
+++ b/完成体を入れろ/内部設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="8805" tabRatio="732" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_内部" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -60,10 +60,6 @@
     <rPh sb="3" eb="5">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -395,15 +391,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいえ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>はい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいえ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -485,10 +473,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -521,15 +505,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>seikaテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -549,10 +525,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>senseiテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(1)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -650,72 +622,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下表に本システムの物理データ設計として、seikaテーブル一覧を記す。</t>
-    <rPh sb="0" eb="2">
-      <t>カヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下表に本システムの物理データ設計として、senseiテーブル一覧を記す。</t>
-    <rPh sb="0" eb="2">
-      <t>カヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下表に本システムの物理データ設計として、tweetsテーブル一覧を記す。</t>
-    <rPh sb="0" eb="2">
-      <t>カヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シラバスの教科書を格納する</t>
     <rPh sb="5" eb="8">
       <t>キョウカショ</t>
@@ -736,10 +642,6 @@
     <rPh sb="9" eb="11">
       <t>カクノウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいえ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -846,10 +748,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいえ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>teacher</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -864,10 +762,6 @@
     <rPh sb="14" eb="15">
       <t>ナガ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いいえ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -883,28 +777,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下表に本システムの物理データ設計として、postsテーブル一覧を記す。</t>
-    <rPh sb="0" eb="2">
-      <t>カヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1138,27 +1010,188 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいえ</t>
+    <t>成果物一覧テーブル</t>
+    <rPh sb="0" eb="5">
+      <t>セイカブツイチラン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいえ</t>
+    <t>成果物詳細テーブル</t>
+    <rPh sb="0" eb="3">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいえ</t>
+    <t>下表に本システムの物理データ設計として、成果物詳細テーブル一覧を記す。</t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シル</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいえ</t>
+    <t>下表に本システムの物理データ設計として、成果物一覧テーブル一覧を記す。</t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="20" eb="25">
+      <t>セイカブツイチラン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>シル</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいえ</t>
+    <t>はい</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいえ</t>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下表に本システムの物理データ設計として、時間割画像管理テーブル一覧を記す。</t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下表に本システムの物理データ設計として、過去問・シラバス管理テーブル一覧を記す。</t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カコモン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去問追加処理</t>
+    <rPh sb="0" eb="3">
+      <t>カコモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2665,7 +2698,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>過去問・シラバステーブル</a:t>
+            <a:t>過去問・シラバス管理テーブル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3028,6 +3061,647 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>809223</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99332</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート : 手操作入力 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="2619375"/>
+          <a:ext cx="1285473" cy="413657"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>送信ボタンクリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365631</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>148556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>631132</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132548</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート : 磁気ディスク 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5547231" y="3425156"/>
+          <a:ext cx="1046551" cy="841242"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>過去問・シラバス管理テーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>828273</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="フローチャート : 手操作入力 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724275" y="1733550"/>
+          <a:ext cx="1285473" cy="413657"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データ入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185536</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185537</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50266</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4367011" y="2133200"/>
+          <a:ext cx="1" cy="507866"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156080</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4367375" y="3038475"/>
+          <a:ext cx="0" cy="394205"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="グループ化 36"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3724275" y="3448049"/>
+          <a:ext cx="1314450" cy="809625"/>
+          <a:chOff x="336178" y="3787589"/>
+          <a:chExt cx="1367117" cy="571501"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="ひし形 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="336178" y="3787589"/>
+            <a:ext cx="1367117" cy="571501"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="398523" y="3888442"/>
+            <a:ext cx="1229363" cy="392415"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>入力ミスがないか</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>32255</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="4286250"/>
+          <a:ext cx="0" cy="394205"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7605</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="フローチャート : 定義済み処理 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="4695825"/>
+          <a:ext cx="1476375" cy="474330"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画像読み込み失敗の表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>54827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365631</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5038725" y="3845777"/>
+          <a:ext cx="508506" cy="7085"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -5086,7 +5760,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>成果物一覧テーブル</a:t>
+            <a:t>成果物詳細テーブル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6138,7 +6812,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>画像一覧テーブル</a:t>
+            <a:t>時間割画像管理テーブル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6339,7 +7013,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>画像一覧テーブル</a:t>
+            <a:t>時間割画像管理テーブル</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -6625,77 +7299,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>176090</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>811622</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88046</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="フローチャート : 定義済み処理 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3577876" y="4730483"/>
-          <a:ext cx="1419943" cy="424223"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>名前入力　　　　　ファイル選択</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>160084</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>104054</xdr:rowOff>
@@ -6860,305 +7463,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>208110</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>32016</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>776409</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>99253</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="74" name="グループ化 73"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3609896" y="3585882"/>
-          <a:ext cx="1352710" cy="571501"/>
-          <a:chOff x="336178" y="3787589"/>
-          <a:chExt cx="1367117" cy="571501"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="ひし形 74"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="336178" y="3787589"/>
-            <a:ext cx="1367117" cy="571501"/>
-          </a:xfrm>
-          <a:prstGeom prst="diamond">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="398523" y="3888442"/>
-            <a:ext cx="1229363" cy="392415"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>画像が存在する</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>88048</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="カギ線コネクタ 76"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4045325" y="4455139"/>
-          <a:ext cx="459440" cy="1599"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>871178</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>158004</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>754773</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>118783</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="カギ線コネクタ 77"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5057375" y="3879958"/>
-          <a:ext cx="884121" cy="801220"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>964028</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>158804</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>761635</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>91567</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="フローチャート : 定義済み処理 41"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5150225" y="4721199"/>
-          <a:ext cx="1582544" cy="437028"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>画像の読み込み失敗の表示</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7553,6 +7857,77 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>136070</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>728381</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="フローチャート : 定義済み処理 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3537856" y="3553866"/>
+          <a:ext cx="1376722" cy="456240"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPredefinedProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>確認ボタン表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8516,7 +8891,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -8532,7 +8907,7 @@
       <c r="M1" s="39"/>
       <c r="N1" s="39"/>
       <c r="O1" s="52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P1" s="66">
         <v>42934</v>
@@ -8555,7 +8930,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" s="68"/>
       <c r="Q2" s="69"/>
@@ -8604,7 +8979,7 @@
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
@@ -8700,7 +9075,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="72" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="72"/>
@@ -8760,7 +9135,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="73"/>
       <c r="G13" s="73"/>
@@ -8877,7 +9252,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="36"/>
       <c r="F19" s="65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="65"/>
       <c r="H19" s="65"/>
@@ -9055,7 +9430,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="57"/>
       <c r="K28" s="84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L28" s="85"/>
       <c r="M28" s="85"/>
@@ -9076,15 +9451,15 @@
       <c r="I29" s="63"/>
       <c r="J29" s="63"/>
       <c r="K29" s="78" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L29" s="79"/>
       <c r="M29" s="80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N29" s="80"/>
       <c r="O29" s="80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P29" s="83"/>
       <c r="Q29" s="41"/>
@@ -9257,7 +9632,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9284,7 +9659,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="91"/>
       <c r="D1" s="92" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
@@ -9292,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
@@ -9303,7 +9678,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -9331,10 +9706,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -9354,7 +9729,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -9373,7 +9748,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="88"/>
       <c r="D6" s="88"/>
@@ -9383,13 +9758,15 @@
       <c r="F6" s="74"/>
       <c r="G6" s="74"/>
       <c r="H6" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="87"/>
+        <v>6</v>
+      </c>
+      <c r="I6" s="87" t="s">
+        <v>135</v>
+      </c>
       <c r="J6" s="87"/>
       <c r="K6" s="87"/>
       <c r="L6" s="54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="87"/>
       <c r="N6" s="87"/>
@@ -9399,20 +9776,23 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="88"/>
       <c r="D7" s="88"/>
       <c r="E7" s="87" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87"/>
       <c r="H7" s="54" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" s="87"/>
       <c r="N7" s="87"/>
@@ -9616,7 +9996,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -9852,7 +10232,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -10048,7 +10428,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:L22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10076,7 +10456,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="91"/>
       <c r="D1" s="92" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
@@ -10084,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
@@ -10095,7 +10475,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -10123,10 +10503,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10146,7 +10526,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10184,10 +10564,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -10207,23 +10587,23 @@
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="101"/>
       <c r="G8" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>16</v>
-      </c>
       <c r="J8" s="101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" s="101"/>
       <c r="L8" s="101"/>
@@ -10241,17 +10621,17 @@
         <v>1</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F9" s="99"/>
       <c r="G9" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J9" s="98"/>
       <c r="K9" s="100"/>
@@ -10270,18 +10650,18 @@
         <v>2</v>
       </c>
       <c r="E10" s="98" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F10" s="99"/>
       <c r="G10" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>42</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="98" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="K10" s="100"/>
       <c r="L10" s="99"/>
@@ -10299,18 +10679,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F11" s="99"/>
       <c r="G11" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="98" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K11" s="100"/>
       <c r="L11" s="99"/>
@@ -10328,18 +10708,18 @@
         <v>4</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="26" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="98" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K12" s="100"/>
       <c r="L12" s="99"/>
@@ -10357,18 +10737,18 @@
         <v>5</v>
       </c>
       <c r="E13" s="98" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13" s="99"/>
       <c r="G13" s="26" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>42</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="98" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K13" s="100"/>
       <c r="L13" s="99"/>
@@ -10386,18 +10766,18 @@
         <v>6</v>
       </c>
       <c r="E14" s="98" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="99"/>
       <c r="G14" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="26" t="s">
         <v>42</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="98" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K14" s="100"/>
       <c r="L14" s="99"/>
@@ -10415,18 +10795,18 @@
         <v>7</v>
       </c>
       <c r="E15" s="98" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="98" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="K15" s="100"/>
       <c r="L15" s="99"/>
@@ -10444,18 +10824,18 @@
         <v>8</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F16" s="99"/>
       <c r="G16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="98" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K16" s="100"/>
       <c r="L16" s="99"/>
@@ -10473,18 +10853,18 @@
         <v>9</v>
       </c>
       <c r="E17" s="98" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F17" s="99"/>
       <c r="G17" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="98" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="K17" s="100"/>
       <c r="L17" s="99"/>
@@ -10502,18 +10882,18 @@
         <v>10</v>
       </c>
       <c r="E18" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="99"/>
       <c r="G18" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="98" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K18" s="100"/>
       <c r="L18" s="99"/>
@@ -10531,18 +10911,18 @@
         <v>11</v>
       </c>
       <c r="E19" s="98" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F19" s="99"/>
       <c r="G19" s="26" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="98" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K19" s="100"/>
       <c r="L19" s="99"/>
@@ -10560,18 +10940,18 @@
         <v>12</v>
       </c>
       <c r="E20" s="98" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F20" s="99"/>
       <c r="G20" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="26" t="s">
         <v>42</v>
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="98" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K20" s="100"/>
       <c r="L20" s="99"/>
@@ -10960,37 +11340,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="E26:F26"/>
@@ -11001,6 +11350,37 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11018,8 +11398,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11046,7 +11426,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="91"/>
       <c r="D1" s="92" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
@@ -11054,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
@@ -11065,7 +11445,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -11093,10 +11473,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -11116,7 +11496,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11135,7 +11515,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="88"/>
       <c r="D6" s="88"/>
@@ -11145,15 +11525,15 @@
       <c r="F6" s="74"/>
       <c r="G6" s="74"/>
       <c r="H6" s="54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="87" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="J6" s="87"/>
       <c r="K6" s="87"/>
       <c r="L6" s="54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="87"/>
       <c r="N6" s="87"/>
@@ -11163,25 +11543,25 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="88"/>
       <c r="D7" s="88"/>
       <c r="E7" s="74" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="F7" s="74"/>
       <c r="G7" s="74"/>
       <c r="H7" s="54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
       <c r="L7" s="54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" s="87"/>
       <c r="N7" s="87"/>
@@ -11385,7 +11765,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -11621,7 +12001,2628 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I6:K6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="0.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="101" t="s">
         <v>13</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="29">
+        <f t="shared" ref="D9:D26" si="0">ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="99"/>
+      <c r="G9" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="100"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="29">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="29">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="29">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="0.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="29">
+        <f t="shared" ref="D9:D26" si="0">ROW()-8</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="99"/>
+      <c r="G9" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="56"/>
+      <c r="J11" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="100"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="100"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="99"/>
+      <c r="G13" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="100"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="29">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="29">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="29">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="29">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="29">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:L8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="10.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="100"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="74">
+        <v>1</v>
+      </c>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -11810,2627 +14811,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="0.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="19">
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="29">
-        <f t="shared" ref="D9:D26" si="0">ROW()-8</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="98" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="100"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E10" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" s="100"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="29">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="98" t="s">
-        <v>130</v>
-      </c>
-      <c r="K11" s="100"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="29">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="29">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="29">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E25" s="98"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="29">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E26" s="98"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="0.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="19">
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="29">
-        <f t="shared" ref="D9:D26" si="0">ROW()-8</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="98" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="100"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E10" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" s="100"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="29">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="100"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E12" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" s="100"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="K13" s="100"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="29">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="29">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="29">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="29">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="29">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E25" s="98"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="29">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E26" s="98"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:P40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J36:J37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="95" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="19">
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="74">
-        <v>1</v>
-      </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I6:K6"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -14439,7 +14819,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="F27" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14467,7 +14847,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="91"/>
       <c r="D1" s="92" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
@@ -14475,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
@@ -14485,7 +14865,7 @@
         <v>2</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O1" s="19">
         <v>42934</v>
@@ -14512,10 +14892,10 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -14534,7 +14914,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -14570,10 +14950,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -14592,23 +14972,23 @@
       <c r="B8" s="16"/>
       <c r="C8" s="22"/>
       <c r="D8" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="101"/>
       <c r="G8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>16</v>
-      </c>
       <c r="J8" s="101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K8" s="101"/>
       <c r="L8" s="101"/>
@@ -14625,20 +15005,20 @@
         <v>1</v>
       </c>
       <c r="E9" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="99"/>
       <c r="G9" s="56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J9" s="98" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K9" s="100"/>
       <c r="L9" s="99"/>
@@ -14655,18 +15035,18 @@
         <v>2</v>
       </c>
       <c r="E10" s="98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="99"/>
       <c r="G10" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="56" t="s">
         <v>41</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>43</v>
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="98" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K10" s="100"/>
       <c r="L10" s="99"/>
@@ -14683,18 +15063,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="99"/>
       <c r="G11" s="56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="98" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="K11" s="100"/>
       <c r="L11" s="99"/>
@@ -14711,18 +15091,18 @@
         <v>4</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="98" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K12" s="100"/>
       <c r="L12" s="99"/>
@@ -14739,18 +15119,18 @@
         <v>5</v>
       </c>
       <c r="E13" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="99"/>
       <c r="G13" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="98" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K13" s="100"/>
       <c r="L13" s="99"/>
@@ -15258,25 +15638,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -15293,12 +15660,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15317,7 +15697,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15344,7 +15724,7 @@
       <c r="B1" s="90"/>
       <c r="C1" s="91"/>
       <c r="D1" s="92" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E1" s="93"/>
       <c r="F1" s="94"/>
@@ -15352,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
@@ -15363,7 +15743,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P1" s="19">
         <v>42935</v>
@@ -15391,10 +15771,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -15414,7 +15794,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15433,7 +15813,7 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="88"/>
       <c r="D6" s="88"/>
@@ -15443,13 +15823,13 @@
       <c r="F6" s="74"/>
       <c r="G6" s="74"/>
       <c r="H6" s="59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="87"/>
       <c r="J6" s="87"/>
       <c r="K6" s="87"/>
       <c r="L6" s="59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="87"/>
       <c r="N6" s="87"/>
@@ -15459,20 +15839,20 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="88"/>
       <c r="D7" s="88"/>
       <c r="E7" s="87" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87"/>
       <c r="H7" s="59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" s="59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" s="87"/>
       <c r="N7" s="87"/>
@@ -15676,7 +16056,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -15912,7 +16292,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
